--- a/Submission 2.0/Error Logs/0_error_log.xlsx
+++ b/Submission 2.0/Error Logs/0_error_log.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AAF346-95A4-4BD8-8442-A9037674C17B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF024E6D-763E-4E8C-86F5-78766422B900}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>image_1</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>0017791.jpg</t>
+  </si>
+  <si>
+    <t>Median</t>
   </si>
 </sst>
 </file>
@@ -171,6 +174,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136555</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5300819-39E1-4756-9244-F9F333A3DEA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136555" y="5544642"/>
+          <a:ext cx="3336896" cy="2284908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>911632</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33521</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>105550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9840C257-69DB-4382-998D-AC1103434452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940582" y="5530850"/>
+          <a:ext cx="3420839" cy="2309000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -992,7 +1100,34 @@
         <v>3743127.9758685799</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <f>AVERAGE(C2:C27)</f>
+        <v>740643.70662764343</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D2:D27)</f>
+        <v>3743153.421129928</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <f>MEDIAN(C2:C27)</f>
+        <v>740643.85110085807</v>
+      </c>
+      <c r="D29">
+        <f>MEDIAN(D2:D27)</f>
+        <v>3743153.1790838651</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Submission 2.0/Error Logs/0_error_log.xlsx
+++ b/Submission 2.0/Error Logs/0_error_log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF024E6D-763E-4E8C-86F5-78766422B900}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2B698-1E4A-4F94-8197-7A69DE95363D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,6 +174,1256 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Predicted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> (blue) Original(orange)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>predicted_y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>740633.82130447403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740635.00387087394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740635.59231868898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740634.47710576304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>740637.714902765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>740636.53259679803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>740639.27390025905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740638.96135087498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>740640.41480444698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>740641.28668074904</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>740642.10918570904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>740641.83668320999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740643.45406334102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>740644.248138375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>740645.58258143696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>740645.78708389599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>740645.91707736906</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>740647.57722777303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>740648.084925515</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>740649.00266526302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>740649.79349689197</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>740650.84462823602</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>740651.12276899302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>740652.18067955296</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>740652.39281697397</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>740653.35946050205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3743164.0723756198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3743160.3611300499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3743161.0549474298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3743173.6082120398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3743156.0991532798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3743168.2097442499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3743154.9997779699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3743160.9004058102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3743156.20416658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3743154.9332918702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3743153.9413720402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3743158.5588396802</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3743153.6502866601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3743152.7078810702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3743149.32352354</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3743150.8398155202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3743152.51886298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3743148.2678655302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3743148.31796289</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3743146.9387607798</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3743145.9838443701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3743144.2729607401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3743144.6733173998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3743143.0611358201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3743143.3831112599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3743142.0666329698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F866-4337-AE32-07B985E691DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual_y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>740662.33197603701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3743127.9758685799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F866-4337-AE32-07B985E691DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="487222776"/>
+        <c:axId val="487221816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="487222776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487221816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="487221816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487222776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -276,6 +1526,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E8F577-3260-4F94-AA73-93EE38AC48E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -547,7 +1833,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
